--- a/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
+++ b/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0207086-F1F7-46A2-87DB-D51312C742C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78C2F9-DB6E-4488-9575-CC94CCD9850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>Docinho formado por bola natalina de 0,90m com cobertura cor de rosa com confetes e embalagem para docinhos, produzido em fibra de vidro.</t>
+  </si>
+  <si>
+    <t>Venda</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -737,7 +740,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -781,6 +784,32 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1888</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1165,7 @@
         <v>94</v>
       </c>
       <c r="M8">
-        <f>C8*H8</f>
+        <f t="shared" ref="M8:M13" si="1">C8*H8</f>
         <v>407.93220000000002</v>
       </c>
     </row>
@@ -1172,7 +1201,7 @@
         <v>99</v>
       </c>
       <c r="M9">
-        <f>C9*H9</f>
+        <f t="shared" si="1"/>
         <v>70702.5</v>
       </c>
     </row>
@@ -1208,7 +1237,7 @@
         <v>104</v>
       </c>
       <c r="M10">
-        <f>C10*H10</f>
+        <f t="shared" si="1"/>
         <v>4370.9639999999999</v>
       </c>
     </row>
@@ -1241,7 +1270,7 @@
         <v>109</v>
       </c>
       <c r="M11">
-        <f>C11*H11</f>
+        <f t="shared" si="1"/>
         <v>25450</v>
       </c>
     </row>
@@ -1277,7 +1306,7 @@
         <v>114</v>
       </c>
       <c r="M12">
-        <f>C12*H12</f>
+        <f t="shared" si="1"/>
         <v>6624.7093000000004</v>
       </c>
     </row>
@@ -1307,7 +1336,7 @@
         <v>118</v>
       </c>
       <c r="M13">
-        <f>C13*H13</f>
+        <f t="shared" si="1"/>
         <v>5262.66</v>
       </c>
     </row>

--- a/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
+++ b/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78C2F9-DB6E-4488-9575-CC94CCD9850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0207086-F1F7-46A2-87DB-D51312C742C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>Docinho formado por bola natalina de 0,90m com cobertura cor de rosa com confetes e embalagem para docinhos, produzido em fibra de vidro.</t>
-  </si>
-  <si>
-    <t>Venda</t>
   </si>
 </sst>
 </file>
@@ -722,7 +719,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -740,7 +737,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -784,32 +781,6 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1888</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M13" si="1">C8*H8</f>
+        <f>C8*H8</f>
         <v>407.93220000000002</v>
       </c>
     </row>
@@ -1201,7 +1172,7 @@
         <v>99</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f>C9*H9</f>
         <v>70702.5</v>
       </c>
     </row>
@@ -1237,7 +1208,7 @@
         <v>104</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f>C10*H10</f>
         <v>4370.9639999999999</v>
       </c>
     </row>
@@ -1270,7 +1241,7 @@
         <v>109</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f>C11*H11</f>
         <v>25450</v>
       </c>
     </row>
@@ -1306,7 +1277,7 @@
         <v>114</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f>C12*H12</f>
         <v>6624.7093000000004</v>
       </c>
     </row>
@@ -1336,7 +1307,7 @@
         <v>118</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f>C13*H13</f>
         <v>5262.66</v>
       </c>
     </row>

--- a/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
+++ b/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0207086-F1F7-46A2-87DB-D51312C742C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B86EE-CBC2-43FC-9C35-8AC213431E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -396,6 +396,129 @@
   </si>
   <si>
     <t>Docinho formado por bola natalina de 0,90m com cobertura cor de rosa com confetes e embalagem para docinhos, produzido em fibra de vidro.</t>
+  </si>
+  <si>
+    <t>Contato 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franciela Coelho </t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentosParaClientes\OrcamentoGerado_JOCKEY CLUB.xlsx</t>
+  </si>
+  <si>
+    <t>PFG145AMM</t>
+  </si>
+  <si>
+    <t>Docinho formado por bola natalina de 0,70m com cobertura amarela com confetes e embalagem para docinhos, produzido em fibra de vidro.</t>
+  </si>
+  <si>
+    <t>PFG145VDP</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>Docinho formado por bola natalina de 0,50m com cobertura verde com confetes e embalagem para docinhos, produzido em fibra de vidro.</t>
+  </si>
+  <si>
+    <t>PFG132</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>Gira Gira de páscoa,  produzido em fibra de vidro e estrutura metálica</t>
+  </si>
+  <si>
+    <t>Gira-gira com ovo de páscoa no centro, base em formato de pétala de flores e assento com pega mãos. Brinquedo produzido com fibra de vidro com acabamento liso com pintura colorida e estrutura de ferro em aço carbono 1020, galvanizada, para proteger de corrosões e resistir a exposição de intempéries. Tridimensional, medindo aproximadamente: 1,80m de altura x 1,70m de largura x 1,70m de profundidade.  A idade mínima recomendada para utilização deste brinquedo é a partir de 3 anos.</t>
+  </si>
+  <si>
+    <t>Gira-gira com base em formato de pétala de flores, ovos de Páscoa e assento com pega mãos. Brinquedo produzido com fibra de  vidro com acabamento liso com acabamento liso pintura colorida brilhante e estrutura de ferro em aço carbono 1020, galvanizada, para proteger de corrosões e resistir a exposição de intempéries. Tridimensional, medindo entre: mínimo: 1,75m de altura x 1,65m de largura x 1,65m de profundidade / máximo: 1,85m de altura x 1,75m de largura x 1,75m de profundidade.  A idade mínima recomendada para utilização deste brinquedo é a partir de 3 anos.</t>
+  </si>
+  <si>
+    <t>AR0215L</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>Árvore de arabescos, produzida em estrutura met. e mangueira de LED</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo aproximadamente 15,00m de altura x 8,20m de largura x 9,50m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa de LED branco, em PVC flexível extrusado, de 13,00mm de diâmetro, 02 fios, com 36 LEDs por metro na tensão de 220v, dispostos na horizontal vista com a mangueira na horizontal que permite a ampla iluminação independente de posição da mangueira nas peças. A árvore é formada por 6 painéis triangulares de 4 andares cada, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. Também deve acompanhar cabos de aço para estaiamento da estrutura. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 14,95m de altura x 8,15m de largura x 9,45m de comprimento / máximo:  15,05m de altura x 8,25m de largura x 9,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da figura em mangueira luminosa de LED, 13mm de diâmetro, em PVC flexível, com 36 LEDs por metro. Para o efeito de movimento será aplicado strobos com lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. Tensão de 220V. Potência da figura: VERIFICAR</t>
+  </si>
+  <si>
+    <t>ARG05PP</t>
+  </si>
+  <si>
+    <t>Balão PP, produzido em estrutura metálica, mangueira de LED, preenchimento com lâmpadas de LED e cesto em vime, decorado com festão, laços e bolas douradas</t>
+  </si>
+  <si>
+    <t>AR0215S</t>
+  </si>
+  <si>
+    <t>Árvore de arabescos, produzida em estrutura met. e mangueira luminosa. Aplicação de Strobos</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo 15,00m de altura x 8,20m de largura x 9,50m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro na tensão de 220v. Aplicação de 89 lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. A árvore é formada por 6 painéis triangulares de 4 andares cada, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. Também deve acompanhar cabos de aço para estaiamento da estrutura. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 14,95m de altura x 8,15m de largura x 9,45m de comprimento / máximo:  15,05m de altura x 8,25m de largura x 9,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da árvore com mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro. Para o efeito de movimento será aplicado strobos com lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. Tensão de 220V. Potência da figura: VERIFICAR</t>
+  </si>
+  <si>
+    <t>Locação</t>
+  </si>
+  <si>
+    <t>FG130C</t>
+  </si>
+  <si>
+    <t>1,95</t>
+  </si>
+  <si>
+    <t>0,57</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>Escorregador, produzido em fibra de vidro e estrutura metálica, com pintura automotiva linha Candy.</t>
+  </si>
+  <si>
+    <t>FG33</t>
+  </si>
+  <si>
+    <t>0,43</t>
+  </si>
+  <si>
+    <t>Cogumelo, produzido em fibra de vidro e pintura automotiva.</t>
+  </si>
+  <si>
+    <t>Cogumelo, tridimensional, medindo aproximadamente 0,34m de altura x 0,43m de largura x 0,43m de profundidade, confeccionado em fibra de vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>Cogumelo com portinha pintada, tridimensional, pintura colorida com predominância das cores vermelho e verde, medindo entre: mínimo: 0,29 m de altura x 0,38m de largura x 0,38m de profundidade / máximo: 0,39m de altura x 0,48m de largura x 0,48m de profundidade, confeccionado em fibra de  vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>FG34</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>Cogumelo, tridimensional,  medindo aproximadamente 0,28m de altura x 0,36m de largura x 0,36m de profundidade, confeccionado em fibra de vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>Cogumelo com portinha pintada, tridimensional, pintura colorida com predominância das cores vermelho e verde, medindo entre: mínimo: 0,23m de altura x 0,31m de largura x 0,38m de profundidade / máximo: 0,33m de altura x 0,41m de largura x 0,41m de profundidade, confeccionado em fibra de  vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
   </si>
 </sst>
 </file>
@@ -719,7 +842,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -737,7 +860,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -781,6 +904,70 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1888</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1888</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954A817-8B83-4AEA-A467-593A05541A84}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1136,7 +1323,7 @@
         <v>94</v>
       </c>
       <c r="M8">
-        <f>C8*H8</f>
+        <f t="shared" ref="M8:M13" si="1">C8*H8</f>
         <v>407.93220000000002</v>
       </c>
     </row>
@@ -1172,7 +1359,7 @@
         <v>99</v>
       </c>
       <c r="M9">
-        <f>C9*H9</f>
+        <f t="shared" si="1"/>
         <v>70702.5</v>
       </c>
     </row>
@@ -1208,7 +1395,7 @@
         <v>104</v>
       </c>
       <c r="M10">
-        <f>C10*H10</f>
+        <f t="shared" si="1"/>
         <v>4370.9639999999999</v>
       </c>
     </row>
@@ -1241,7 +1428,7 @@
         <v>109</v>
       </c>
       <c r="M11">
-        <f>C11*H11</f>
+        <f t="shared" si="1"/>
         <v>25450</v>
       </c>
     </row>
@@ -1277,7 +1464,7 @@
         <v>114</v>
       </c>
       <c r="M12">
-        <f>C12*H12</f>
+        <f t="shared" si="1"/>
         <v>6624.7093000000004</v>
       </c>
     </row>
@@ -1307,8 +1494,422 @@
         <v>118</v>
       </c>
       <c r="M13">
-        <f>C13*H13</f>
+        <f t="shared" si="1"/>
         <v>5262.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2985.2159999999999</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M19" si="2">C14*H14</f>
+        <v>2985.2159999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1571.7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>1571.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9873</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5262.66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M25" si="3">C20*H20</f>
+        <v>5262.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2985.2159999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>2985.2159999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1571.7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>1571.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="2">
+        <v>9873</v>
+      </c>
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6235.6944000000003</v>
+      </c>
+      <c r="J24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>6235.6944000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="2">
+        <v>540.42899999999997</v>
+      </c>
+      <c r="J25" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>540.42899999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="2">
+        <v>447.899</v>
+      </c>
+      <c r="J26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26">
+        <f>C26*H26</f>
+        <v>447.899</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
+++ b/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B86EE-CBC2-43FC-9C35-8AC213431E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739C618-2EDB-40B9-ACAD-71EC5AE2B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
     <sheet name="resultado" sheetId="5" r:id="rId3"/>
     <sheet name="cenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="Cenário Feliz Páscoa - Geral" sheetId="8" r:id="rId5"/>
-    <sheet name="Entrada Principal" sheetId="7" r:id="rId6"/>
+    <sheet name="Toca do Coelho - Ceário Geral" sheetId="9" r:id="rId5"/>
+    <sheet name="Cenário Feliz Páscoa - Geral" sheetId="8" r:id="rId6"/>
+    <sheet name="Entrada Principal" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -519,6 +520,81 @@
   </si>
   <si>
     <t>Cogumelo com portinha pintada, tridimensional, pintura colorida com predominância das cores vermelho e verde, medindo entre: mínimo: 0,23m de altura x 0,31m de largura x 0,38m de profundidade / máximo: 0,33m de altura x 0,41m de largura x 0,41m de profundidade, confeccionado em fibra de  vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>FG35</t>
+  </si>
+  <si>
+    <t>0,52</t>
+  </si>
+  <si>
+    <t>0,46</t>
+  </si>
+  <si>
+    <t>Cogumelo, tridimensional,  medindo aproximadamente 0,50m de altura x 0,52m de largura x 0,46m de profundidade, confeccionado em fibra de vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>Cogumelo com portinha pintada, tridimensional, pintura colorida com predominância das cores vermelho e verde, medindo entre: mínimo: 0,45m de altura x 0,47m de largura x 0,41m de profundidade / máximo: 0,55m de altura x 0,57m de largura x 0,51m de profundidade, confeccionado em fibra de  vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>PFG03BGAZ</t>
+  </si>
+  <si>
+    <t>Ovo de páscoa tridimensional, pintado na cor azul com adesivo em forma de bolinhas brancas, medindo 0,75m de altura por 0,52m de diâmetro, produzido em fibra de vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>Ovo de páscoa na cor azul com bolinhas brancas tridimensional alusivo a decoração de páscoa, com dimensões proporcionais entre mínimo: 0,70m altura x 0,47m diâmetro / máximo: 0,80m altura x 0,57m diâmetro. Produzido em fibra de  vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>PFG03BMRS</t>
+  </si>
+  <si>
+    <t>Ovo de páscoa tridimensional, pintado na cor rosa com adesivo em forma de bolinhas brancas, medindo 0,50m de altura por 0,34m de diâmetro, produzido em fibra de vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>Ovo de páscoa na cor rosa com bolinhas brancas tridimensional alusivo a decoração de páscoa, com dimensões proporcionais entre mínimo: 0,45m altura x 0,29m diâmetro / máximo: 0,55m altura x 0,39m diâmetro. Produzido em fibra de  vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante.</t>
+  </si>
+  <si>
+    <t>FG133C</t>
+  </si>
+  <si>
+    <t>2,35</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>1,82</t>
+  </si>
+  <si>
+    <t>Balanço com três bancos em formato de bola,  produzido em fibra de vidro e estrutura metálica, com pintura automotiva linha candy.</t>
+  </si>
+  <si>
+    <t>Toca do Coelho - Ceário Geral</t>
+  </si>
+  <si>
+    <t>PFG17</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>3,05</t>
+  </si>
+  <si>
+    <t>Casa Cogumelo de chocolate c/ confetes, produzida em fibra de vidro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogumelo gigante de chocolate com confetes, medindo aproximadamente 3,20m de altura x 3,05m de comprimento x 3,05m de largura confeccionado em fibra de vidro com acabamento liso e pintura com esmalte sintético e verniz automotivo brilhante. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa em formato de cogumelo gigante, com pintura marrom imitando chocolate e aplicação de adesivos impressos imitando confetes. Produto tridimensional alusivo a decoração de páscoa. Produzida em fibra de  vidro com acabamento liso e pintura em esmalte sintético e verniz automotivo brilhante. Medidas entre: mínimo: 3,15m altura x 3,00m diâmetro / máximo: 3,25m altura x 3,15m diâmetro. </t>
+  </si>
+  <si>
+    <t>PMOBP02RF</t>
+  </si>
+  <si>
+    <t>Poste com floreiras confeccionados em fibra de vidro com pintura automotiva na cor rosa e detalhes em verde para o poste e caramelo para as floreiras, detalhes em estrutura de arabescos e luminária translúcida. OBS.: flores não inclusas.</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1082,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -1042,14 +1118,22 @@
         <v>60</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954A817-8B83-4AEA-A467-593A05541A84}">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76189D25-7218-4820-80E4-7C79DCBAE09C}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1101,35 +1185,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
       </c>
       <c r="H2" s="2">
-        <v>47324.537900000003</v>
+        <v>26771.9535</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>47324.537900000003</v>
+        <f>C2*H2</f>
+        <v>26771.9535</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1137,32 +1221,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>3843.9929000000002</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
       <c r="M3">
-        <f t="shared" si="0"/>
-        <v>3843.9929000000002</v>
+        <f>C3*H3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1170,746 +1239,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>3781.2494999999999</v>
+        <v>3673.2150000000001</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>3781.2494999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5282.1998000000003</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>5282.1998000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2818.92</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>2818.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="2">
-        <v>951.5376</v>
-      </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>951.5376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="2">
-        <v>407.93220000000002</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M13" si="1">C8*H8</f>
-        <v>407.93220000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>70702.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>70702.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4370.9639999999999</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>4370.9639999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="2">
-        <v>25450</v>
-      </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>25450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6624.7093000000004</v>
-      </c>
-      <c r="J12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" t="s">
-        <v>114</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>6624.7093000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5262.66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>5262.66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2985.2159999999999</v>
-      </c>
-      <c r="J14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14:M19" si="2">C14*H14</f>
-        <v>2985.2159999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1571.7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>1571.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="2">
-        <v>9873</v>
-      </c>
-      <c r="J16" t="s">
-        <v>129</v>
-      </c>
-      <c r="K16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>9873</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>139</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5262.66</v>
-      </c>
-      <c r="J20" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20:M25" si="3">C20*H20</f>
-        <v>5262.66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2985.2159999999999</v>
-      </c>
-      <c r="J21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
-        <v>2985.2159999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1571.7</v>
-      </c>
-      <c r="J22" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
-        <v>1571.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="2">
-        <v>9873</v>
-      </c>
-      <c r="J23" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" t="s">
-        <v>130</v>
-      </c>
-      <c r="L23" t="s">
-        <v>131</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
-        <v>9873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="2">
-        <v>6235.6944000000003</v>
-      </c>
-      <c r="J24" t="s">
-        <v>149</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
-        <v>6235.6944000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="2">
-        <v>540.42899999999997</v>
-      </c>
-      <c r="J25" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
-        <v>540.42899999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="2">
-        <v>447.899</v>
-      </c>
-      <c r="J26" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" t="s">
-        <v>158</v>
-      </c>
-      <c r="L26" t="s">
-        <v>159</v>
-      </c>
-      <c r="M26">
-        <f>C26*H26</f>
-        <v>447.899</v>
+        <f>C4*H4</f>
+        <v>3673.2150000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1918,6 +1273,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954A817-8B83-4AEA-A467-593A05541A84}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>47324.537900000003</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M7" si="0">C2*H2</f>
+        <v>47324.537900000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3843.9929000000002</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>3843.9929000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3781.2494999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>3781.2494999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5282.1998000000003</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>5282.1998000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2818.92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>2818.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="2">
+        <v>951.5376</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>951.5376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="2">
+        <v>407.93220000000002</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M13" si="1">C8*H8</f>
+        <v>407.93220000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>70702.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>70702.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4370.9639999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>4370.9639999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="2">
+        <v>25450</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>25450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6624.7093000000004</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>6624.7093000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5262.66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>5262.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2985.2159999999999</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M19" si="2">C14*H14</f>
+        <v>2985.2159999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1571.7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>1571.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9873</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5262.66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M25" si="3">C20*H20</f>
+        <v>5262.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2985.2159999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>2985.2159999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1571.7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>1571.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="2">
+        <v>9873</v>
+      </c>
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6235.6944000000003</v>
+      </c>
+      <c r="J24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>6235.6944000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="2">
+        <v>540.42899999999997</v>
+      </c>
+      <c r="J25" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>540.42899999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="2">
+        <v>447.899</v>
+      </c>
+      <c r="J26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M31" si="4">C26*H26</f>
+        <v>447.899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="2">
+        <v>851.87149999999997</v>
+      </c>
+      <c r="J27" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>851.87149999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="2">
+        <v>951.5376</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>951.5376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="2">
+        <v>407.93220000000002</v>
+      </c>
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s">
+        <v>169</v>
+      </c>
+      <c r="L29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>407.93220000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3843.9929000000002</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>3843.9929000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>9037.0722000000005</v>
+      </c>
+      <c r="J31" t="s">
+        <v>175</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>9037.0722000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D53E6AF-1635-462B-BD5B-E2C2FFDBFB8E}">
   <dimension ref="A1:M10"/>
   <sheetViews>

--- a/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
+++ b/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739C618-2EDB-40B9-ACAD-71EC5AE2B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F175F-E2A8-4046-A5DF-74F0DB230201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -1133,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76189D25-7218-4820-80E4-7C79DCBAE09C}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1226,45 +1226,27 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>3673.2150000000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>184</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3673.2150000000001</v>
-      </c>
-      <c r="J4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M4">
-        <f>C4*H4</f>
-        <v>3673.2150000000001</v>
+        <v>7346.43</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
+++ b/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F175F-E2A8-4046-A5DF-74F0DB230201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DD574F-17A6-4118-95E5-FAD58BE16F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -1045,6 +1045,9 @@
       <c r="J4" t="s">
         <v>144</v>
       </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76189D25-7218-4820-80E4-7C79DCBAE09C}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1202,6 +1205,9 @@
       <c r="H2" s="2">
         <v>26771.9535</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
         <v>180</v>
       </c>
@@ -1241,12 +1247,123 @@
       <c r="H3" s="2">
         <v>3673.2150000000001</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3" t="s">
         <v>184</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
         <v>7346.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3660.942</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4">
+        <f>C4*H4</f>
+        <v>3660.942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1756.5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
+        <f>C5*H5</f>
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3660.942</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6">
+        <f>C6*H6</f>
+        <v>3660.942</v>
       </c>
     </row>
   </sheetData>
@@ -1325,6 +1442,9 @@
       <c r="H2" s="2">
         <v>47324.537900000003</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
         <v>62</v>
       </c>
@@ -1364,6 +1484,9 @@
       <c r="H3" s="2">
         <v>3843.9929000000002</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3" t="s">
         <v>66</v>
       </c>
@@ -1394,6 +1517,9 @@
       <c r="H4" s="2">
         <v>3781.2494999999999</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4" t="s">
         <v>71</v>
       </c>
@@ -1430,11 +1556,14 @@
       <c r="H5" s="2">
         <v>5282.1998000000003</v>
       </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
       <c r="J5" t="s">
         <v>78</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f>C5*H5</f>
         <v>5282.1998000000003</v>
       </c>
     </row>
@@ -1454,6 +1583,9 @@
       <c r="H6" s="2">
         <v>2818.92</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6" t="s">
         <v>81</v>
       </c>
@@ -1484,6 +1616,9 @@
       <c r="H7" s="2">
         <v>951.5376</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7" t="s">
         <v>86</v>
       </c>
@@ -1520,6 +1655,9 @@
       <c r="H8" s="2">
         <v>407.93220000000002</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8" t="s">
         <v>92</v>
       </c>
@@ -1556,6 +1694,9 @@
       <c r="H9" s="2">
         <v>70702.5</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9" t="s">
         <v>97</v>
       </c>
@@ -1592,6 +1733,9 @@
       <c r="H10" s="2">
         <v>4370.9639999999999</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="J10" t="s">
         <v>102</v>
       </c>
@@ -1628,6 +1772,9 @@
       <c r="H11" s="2">
         <v>25450</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11" t="s">
         <v>108</v>
       </c>
@@ -1661,6 +1808,9 @@
       <c r="H12" s="2">
         <v>6624.7093000000004</v>
       </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="J12" t="s">
         <v>112</v>
       </c>
@@ -1697,6 +1847,9 @@
       <c r="H13" s="2">
         <v>5262.66</v>
       </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
       <c r="J13" t="s">
         <v>118</v>
       </c>
@@ -1727,6 +1880,9 @@
       <c r="H14" s="2">
         <v>2985.2159999999999</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14" t="s">
         <v>123</v>
       </c>
@@ -1757,6 +1913,9 @@
       <c r="H15" s="2">
         <v>1571.7</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15" t="s">
         <v>126</v>
       </c>
@@ -1787,6 +1946,9 @@
       <c r="H16" s="2">
         <v>9873</v>
       </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
       <c r="J16" t="s">
         <v>129</v>
       </c>
@@ -1820,6 +1982,9 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17" t="s">
         <v>135</v>
       </c>
@@ -1847,6 +2012,9 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="J18" t="s">
         <v>139</v>
       </c>
@@ -1877,6 +2045,9 @@
       <c r="H19" s="2">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="J19" t="s">
         <v>141</v>
       </c>
@@ -1913,6 +2084,9 @@
       <c r="H20" s="2">
         <v>5262.66</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20" t="s">
         <v>118</v>
       </c>
@@ -1943,6 +2117,9 @@
       <c r="H21" s="2">
         <v>2985.2159999999999</v>
       </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21" t="s">
         <v>123</v>
       </c>
@@ -1973,6 +2150,9 @@
       <c r="H22" s="2">
         <v>1571.7</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22" t="s">
         <v>126</v>
       </c>
@@ -2003,6 +2183,9 @@
       <c r="H23" s="2">
         <v>9873</v>
       </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
       <c r="J23" t="s">
         <v>129</v>
       </c>
@@ -2039,6 +2222,9 @@
       <c r="H24" s="2">
         <v>6235.6944000000003</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="J24" t="s">
         <v>149</v>
       </c>
@@ -2069,6 +2255,9 @@
       <c r="H25" s="2">
         <v>540.42899999999997</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25" t="s">
         <v>152</v>
       </c>
@@ -2105,6 +2294,9 @@
       <c r="H26" s="2">
         <v>447.899</v>
       </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="J26" t="s">
         <v>152</v>
       </c>
@@ -2141,6 +2333,9 @@
       <c r="H27" s="2">
         <v>851.87149999999997</v>
       </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
       <c r="J27" t="s">
         <v>152</v>
       </c>
@@ -2171,6 +2366,9 @@
       <c r="H28" s="2">
         <v>951.5376</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28" t="s">
         <v>92</v>
       </c>
@@ -2207,6 +2405,9 @@
       <c r="H29" s="2">
         <v>407.93220000000002</v>
       </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29" t="s">
         <v>81</v>
       </c>
@@ -2246,6 +2447,9 @@
       <c r="H30" s="2">
         <v>3843.9929000000002</v>
       </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
       <c r="J30" t="s">
         <v>66</v>
       </c>
@@ -2278,6 +2482,9 @@
       </c>
       <c r="H31" s="2">
         <v>9037.0722000000005</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>175</v>
@@ -2294,7 +2501,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D53E6AF-1635-462B-BD5B-E2C2FFDBFB8E}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2366,6 +2573,9 @@
       <c r="H2" s="2">
         <v>2931.6633000000002</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
@@ -2405,6 +2615,9 @@
       <c r="H3" s="2">
         <v>92.3</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3" t="s">
         <v>36</v>
       </c>
@@ -2441,6 +2654,9 @@
       <c r="H4" s="2">
         <v>417.26100000000002</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4" t="s">
         <v>39</v>
       </c>
@@ -2471,6 +2687,9 @@
       <c r="H5" s="2">
         <v>365</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
@@ -2510,6 +2729,9 @@
       <c r="H6" s="2">
         <v>71.5</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
@@ -2549,6 +2771,9 @@
       <c r="H7" s="2">
         <v>3660.942</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7" t="s">
         <v>52</v>
       </c>
@@ -2562,98 +2787,35 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>3660.942</v>
+        <v>1371.75</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M8">
         <f>C8*H8</f>
-        <v>3660.942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1371.75</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9">
-        <f>C9*H9</f>
         <v>2743.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1756.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10">
-        <f>C10*H10</f>
-        <v>3513</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
+++ b/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F175F-E2A8-4046-A5DF-74F0DB230201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AFCDE5-D45A-45E6-9B7E-4C332AE50988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="227">
   <si>
     <t>id</t>
   </si>
@@ -595,6 +595,132 @@
   </si>
   <si>
     <t>Poste com floreiras confeccionados em fibra de vidro com pintura automotiva na cor rosa e detalhes em verde para o poste e caramelo para as floreiras, detalhes em estrutura de arabescos e luminária translúcida. OBS.: flores não inclusas.</t>
+  </si>
+  <si>
+    <t>PFJ24G</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>Osterbaum, tridimensional, produzido em estrutura metálica com pintura branca e lâmpadas de LED branco fio branco. Decorado com ovos em tamanhos variados, produzido em PVC 6mm com impressão em dupla face.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osterbaum branca com mini ovinhos para decoração de Páscoa, tridimensional, medindo entre: 6,00m de altura x 3,60m de diâmetro, produzido em barra chata 1/8 x 3/8 de aço carbono 1020, fixado em poste redondo de aço carbono 1020, com 2,5 polegadas de diâmetro x 2mm de parede, galvanização por imersão a base de zinco, visando a proteção de corrosões e exposição às intempéries, pintura a base de poliuretano (PU Automotivo) na cor branca. Contorno dos galhos com lâmpadas de LED brancos frio, fio elétrico branco 2 x 0,5mm².  tensão de 220v. Mini Ovinhos, produzidos em PVC 10mm de espessura com impressão digital e tratamento UV, impressão em dupla face. </t>
+  </si>
+  <si>
+    <t>Osterbaum, alusivo a decoração de Páscoa, tridimensional, medindo entre: mínimo: 5,95m de altura x 3,55m de diâmetro / máximo: 6,05m de altura x 3,65m de diâmetro. Contorno dos galhos com 3200 lâmpadas de LED brancos frios, fio elétrico branco 2 x 0,5mm². Decorado com  56 ovos tamanho 25cm de altura x 16cm de largura, e 48 ovos tamanho 30cm de altura x 20cm de largura produzidos em PVC 5mm de espessura com impressão digital tratamento UV, impressão em dupla face com cores diversificadas. Osterbaum produzida em estrutura de metalon 20mm x 20mm e barra chata de 1/8 x 3/8 galvanizadas, formada por 4 jogos de galhos fixados em poste redondo de aço carbono 1020, com 2,5 polegadas de diâmetro x 2mm de parede, galvanização por imersão a base de zinco, visando a proteção de corrosões e exposição às intempéries, pintura a base de poliuretano (PU Automotivo) na cor branca. Tensão de 220V.</t>
+  </si>
+  <si>
+    <t>gggg</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>FG77G</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Pirulito G, prod. em bolas de fibra de vidro em vários tamanhos</t>
+  </si>
+  <si>
+    <t>Pirulito de bolas, tridimensional, medindo aproximadamente 3,60m de altura x 1,20m de diâmetro, confeccionado com cinco bolas de fibra de vidro com acabamento liso e pintura em esmalte sintético e verniz automotivo brilhante, as bolas são fixadas em poste metálico de 2 polegadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totem composto por 5 bolas natalinas coloridas, revestidas com verniz brilhante, tridimensional, medindo entre: mínimo: 3,55m de altura x 1,15m de largura x 1,15m de profundidade / máximo: 3,65m de altura x 1,25m de largura x 1,25m de profundidade,  confeccionado em fibra de  vidro com acabamento liso e fixadas em poste de aço carbono, zincado e com proteção anticorrosiva resistente a exposição. </t>
+  </si>
+  <si>
+    <t>gr01</t>
+  </si>
+  <si>
+    <t>CGR01</t>
+  </si>
+  <si>
+    <t>0,65</t>
+  </si>
+  <si>
+    <t>Atabaque produzido em estrutura metálica e corda luminosa</t>
+  </si>
+  <si>
+    <t>PFJ24M</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>2,75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osterbaum branca com mini ovinhos para decoração de Páscoa, tridimensional, medindo entre: 4,50m de altura x 2,75m de diâmetro, produzido em barra chata 1/8 x 3/8 de aço carbono 1020, fixado em poste redondo de aço carbono 1020, com 2,5 polegadas de diâmetro x 2mm de parede, galvanização por imersão a base de zinco, visando a proteção de corrosões e exposição às intempéries, pintura a base de poliuretano (PU Automotivo) na cor branca. Contorno dos galhos com lâmpadas de LED brancos frio, fio elétrico branco 2 x 0,5mm².  tensão de 220v. Mini Ovinhos, produzidos em PVC 10mm de espessura com impressão digital e tratamento UV, impressão em dupla face. </t>
+  </si>
+  <si>
+    <t>Osterbaum, alusivo a decoração de Páscoa, tridimensional, medindo entre: mínimo: 4,45m de altura x 2,70m de diâmetro / máximo: 4,55m de altura x 2,80m de diâmetro. Contorno dos galhos com 2400 lâmpadas de LED brancos frios, fio elétrico branco 2 x 0,5mm². Decorado com 32 ovos tamanho 25cm de altura x 16cm de largura, e 24 ovos tamanho 30cm de altura x 20cm de largura produzidos em PVC 5mm de espessura com impressão digital tratamento UV, impressão em dupla face com cores diversificadas. Osterbaum produzida estrutura de metalon 20mm x 20mm e barra chata de 1/8 x 3/8 galvanizadas, formada por 4 jogos de galhos fixados em poste redondo de aço carbono 1020, com 2,5 polegadas de diâmetro x 2mm de parede, galvanização por imersão a base de zinco, visando a proteção de corrosões e exposição às intempéries, pintura a base de poliuretano (PU Automotivo) na cor branca. Tensão de 220V.</t>
+  </si>
+  <si>
+    <t>PAR04</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovo de páscoa de passagem, produzida em estrutura metálica, mangueira luminosa e preenchimento com lâmpadas de LED. </t>
+  </si>
+  <si>
+    <t>Ovo de páscoa luminoso gigante, com laço no topo e acesso para passagem, figura tridimensional, produzida em estrutura de metalon 20mm x 20mm e metalon 15mm x 15mm, parede de 1,20mm de espessura e de barra chata de 1/8 x 3/8 e 1 1/2 x 1/4 de polegada, galvanização por imersão a base de zinco, visando a proteção de corrosões e exposição às intempéries.  Contorno com mangueira luminosa incandescente na cor cristal, em PVC flexível de 13mm de diâmetro, com 36 micro lâmpadas por metro. Preenchimento com conjuntos de lâmpadas de LED nas cores azul fio elétrico cristal azul, branco morno fio elétrico transparente e branco frio, fio elétrico branco fosco (medida do fio de cada conjunto: 2x0,5mm²). Medidas entre mínimo: 4,45m de altura x 2,85m de diâmetro / máximo: 4,55m de altura x 2,95m de diâmetro.</t>
+  </si>
+  <si>
+    <t>PAR01G</t>
+  </si>
+  <si>
+    <t>4,18</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>Coelho gigante, produzido em estrutura metálica, mangueira luminosa e preenchimento com lâmpadas de LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coelho grande, medindo aproximadamente 4,18m de altura x 2,80m de largura x 2,00m de profundidade, produzido em ferro redondo maciço de 1/4, 3/16 e 1/8 com pintura em pintura em esmalte sintético automotivo e verniz automotivo brilhante e contorno com lâmpadas de LED branco  fio elétrico branco para o corpo e parte externa das orelhas e LED vermelho fio elétrico vermelho transparente 2 x 0,5mm² para a parte interna das orelhas, sendo o cabo  formado por 12 fios de cobre de 0,12mm². acabamentos (olhos, focinho e patinhas) em PVC 6mm. </t>
+  </si>
+  <si>
+    <t>Coelho gigante aramado, alusivo a decoração de páscoa, tridimensional, com dimensões proporcionais entre: mínimo: 4,13m de altura x 2,75m de largura x 1,95m de profundidade / máximo: 4,23m de altura x 2,85m de largura x 2,05m de profundidade. Produzido em ferro redondo maciço de 1/4, 3/16 e 1/8 com pintura em esmalte sintético automotivo e verniz automotivo brilhante e contorno com lâmpadas de LED branco  fio elétrico branco para o corpo e parte externa das orelhas e LED vermelho fio elétrico vermelho transparente 2 x 0,5mm² para a parte interna das orelhas, sendo o cabo  formado por 12 fios de cobre de 0,12mm². Acabamentos como olhos, focinho, dentinhos e patinhas serão produzidos em PVC 6mm. Tensão de 220V. Potência da figura: VERIFICAR.</t>
+  </si>
+  <si>
+    <t>PARG05M</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>Balão M, produzido em estrutura metálica, mangueira de LED, preenchimento com lâmpadas de LED e cesto em vime, adornado com festão e decorações pascais.</t>
+  </si>
+  <si>
+    <t>PST01GF</t>
+  </si>
+  <si>
+    <t>P2D13T</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>Placa "Toca do Coelho", produzida em PVC com impressão digital em face única</t>
+  </si>
+  <si>
+    <t>Figura bidimensional, com desenho em formato de placa com a escrita "Toca do Coelho", produzida em PVC 10mm de espessura com impressão digital com tratamento UV, medindo aproximadamente 1,50m de altura por 4,00m de largura.</t>
+  </si>
+  <si>
+    <t>Placa decorativa com a escrita "Toca do Coelho", produzida em PVC 10mm de espessura com impressão digital e tratamento UV, impressão em face única. Dimensões proporcionais entre mínimo: 1,45m de altura x 3,95m de largura / máximo: 1,55m de altura x 4,05m de largura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrutura em formato de trave para fixação de placas e portais, produzida em estrutura metálica zincada, medindo aproximadamente 5m  de altura (sendo 4m aparentes e 1m enterrado) x 5m de largura, com 2 postes laterais de 3 polegadas e poste central de 2,5 polegadas pintados e decorados com fita de veludo vermelha. </t>
+  </si>
+  <si>
+    <t>Estrutura em formato de trave, produzida em estrutura metálica zincada e parede de 2mm. Dimensões proporcionais entre: 5,00m de altura (sendo 4m. aparentes e 1m. enterrado) x 5,00 de largura  com 2 postes laterais na vertical de 3 polegadas e poste central na horizontal de 2,5 polegada. Peça pintada de branco e decorada com fita de veludo vermelha.</t>
   </si>
 </sst>
 </file>
@@ -1045,6 +1171,9 @@
       <c r="J4" t="s">
         <v>144</v>
       </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76189D25-7218-4820-80E4-7C79DCBAE09C}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1212,7 +1341,7 @@
         <v>182</v>
       </c>
       <c r="M2">
-        <f>C2*H2</f>
+        <f t="shared" ref="M2:M7" si="0">C2*H2</f>
         <v>26771.9535</v>
       </c>
     </row>
@@ -1241,12 +1370,489 @@
       <c r="H3" s="2">
         <v>3673.2150000000001</v>
       </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
       <c r="J3" t="s">
         <v>184</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
         <v>7346.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4">
+        <v>266</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16218.75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>16218.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>500</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f>C5*H5</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8">
+        <v>128</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M12" si="1">C8*H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9">
+        <v>210</v>
+      </c>
+      <c r="H9" s="2">
+        <v>11248.404</v>
+      </c>
+      <c r="J9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>22496.808000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="2">
+        <v>29930</v>
+      </c>
+      <c r="J10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>29930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>15244.7189</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" t="s">
+        <v>215</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>15244.7189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12">
+        <v>1160</v>
+      </c>
+      <c r="H12" s="2">
+        <v>38222.022100000002</v>
+      </c>
+      <c r="J12" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>38222.022100000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3224.8645000000001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13">
+        <f>C13*H13</f>
+        <v>3224.8645000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3649.386</v>
+      </c>
+      <c r="J14" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" t="s">
+        <v>226</v>
+      </c>
+      <c r="M14">
+        <f>C14*H14</f>
+        <v>3649.386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3224.8645000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L15" t="s">
+        <v>224</v>
+      </c>
+      <c r="M15">
+        <f>C15*H15</f>
+        <v>3224.8645000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1371.75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16">
+        <f>C16*H16</f>
+        <v>2743.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1756.5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17">
+        <f>C17*H17</f>
+        <v>3513</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
+++ b/orcamentos/JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC71C6C-E494-4717-96D4-0F8B9CB27E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0DF6BE-01E1-41C0-B74A-135E862A5F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -910,6 +910,9 @@
       <c r="H2" s="2">
         <v>2931.6633000000002</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
@@ -949,6 +952,9 @@
       <c r="H3" s="2">
         <v>92.3</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>36</v>
       </c>
@@ -985,6 +991,9 @@
       <c r="H4" s="2">
         <v>417.26100000000002</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>39</v>
       </c>
@@ -1015,6 +1024,9 @@
       <c r="H5" s="2">
         <v>365</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
@@ -1054,6 +1066,9 @@
       <c r="H6" s="2">
         <v>71.5</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
@@ -1093,6 +1108,9 @@
       <c r="H7" s="2">
         <v>3660.942</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
         <v>52</v>
       </c>
@@ -1126,6 +1144,9 @@
       <c r="H8" s="2">
         <v>3660.942</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
         <v>54</v>
       </c>
@@ -1159,6 +1180,9 @@
       <c r="H9" s="2">
         <v>1371.75</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>57</v>
       </c>
@@ -1191,6 +1215,9 @@
       </c>
       <c r="H10" s="2">
         <v>1756.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>59</v>
@@ -1278,6 +1305,9 @@
       <c r="H2" s="2">
         <v>26771.9535</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
         <v>69</v>
       </c>
@@ -1394,6 +1424,9 @@
       <c r="H2" s="2">
         <v>47324.537900000003</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
         <v>73</v>
       </c>
@@ -1433,6 +1466,9 @@
       <c r="H3" s="2">
         <v>3843.9929000000002</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>77</v>
       </c>
@@ -1463,6 +1499,9 @@
       <c r="H4" s="2">
         <v>3781.2494999999999</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>82</v>
       </c>
@@ -1485,6 +1524,9 @@
         <v>78</v>
       </c>
       <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="M5">
